--- a/Business Statistic/Session 25-09-2023/Book1.xlsx
+++ b/Business Statistic/Session 25-09-2023/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Karan Panchal MCA Sem 1\Business Statistic\Session 25-09-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E1E0A1-5992-4F0F-9FC3-F1F9B246BC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD325A5-E923-4CBD-833C-D6DB506C477A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{D4031081-E34B-45C2-8F27-580405FCCFD9}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="890">
   <si>
     <t>Passenger Id</t>
   </si>
@@ -2710,6 +2710,12 @@
   </si>
   <si>
     <t>min out</t>
+  </si>
+  <si>
+    <t>IQR</t>
+  </si>
+  <si>
+    <t>Q3-Q1</t>
   </si>
 </sst>
 </file>
@@ -23544,10 +23550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F2BEB7-CF53-4099-B0F1-C29FBF8F87EA}">
-  <dimension ref="A1:D715"/>
+  <dimension ref="A1:F715"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23555,17 +23561,23 @@
     <col min="1" max="1" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>888</v>
+      </c>
+      <c r="F2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>71.28</v>
       </c>
@@ -23577,7 +23589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>7.93</v>
       </c>
@@ -23589,7 +23601,7 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>53.1</v>
       </c>
@@ -23601,7 +23613,7 @@
         <v>15.74</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>8.0500000000000007</v>
       </c>
@@ -23613,7 +23625,7 @@
         <v>33.375</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>51.86</v>
       </c>
@@ -23625,12 +23637,12 @@
         <v>512.33000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>21.08</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>11.13</v>
       </c>
@@ -23642,7 +23654,7 @@
         <v>71.362499999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>30.07</v>
       </c>
@@ -23654,32 +23666,32 @@
         <v>-29.937499999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>16.7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>26.55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>31.28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>7.85</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>16</v>
       </c>
